--- a/Train/Files/Список станций.xlsx
+++ b/Train/Files/Список станций.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93C73A3-B29D-49E1-A71C-83A6AEC65D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="белый" sheetId="1" r:id="rId1"/>
     <sheet name="желтый" sheetId="2" r:id="rId2"/>
     <sheet name="зеленый" sheetId="3" r:id="rId3"/>
+    <sheet name="экспорт" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="210">
   <si>
     <t>Акча</t>
   </si>
@@ -576,12 +578,87 @@
   </si>
   <si>
     <t>Раустан</t>
+  </si>
+  <si>
+    <t>КЗХ</t>
+  </si>
+  <si>
+    <t>ТДЖ</t>
+  </si>
+  <si>
+    <t>КРГ</t>
+  </si>
+  <si>
+    <t>ТРК</t>
+  </si>
+  <si>
+    <t>ИРА</t>
+  </si>
+  <si>
+    <t>Келес (эксп)</t>
+  </si>
+  <si>
+    <t>Сырдарьинская (эксп)</t>
+  </si>
+  <si>
+    <t>Каракалпакстан (эксп)</t>
+  </si>
+  <si>
+    <t>Бекабад (эксп)</t>
+  </si>
+  <si>
+    <t>Сувонобод (эксп)</t>
+  </si>
+  <si>
+    <t>Амузанг (эксп)</t>
+  </si>
+  <si>
+    <t>Кудукли (эксп)</t>
+  </si>
+  <si>
+    <t>Савай (эксп)</t>
+  </si>
+  <si>
+    <t>Султанабад (эксп)</t>
+  </si>
+  <si>
+    <t>Кувасай (эксп)</t>
+  </si>
+  <si>
+    <t>Ханабад (эксп)</t>
+  </si>
+  <si>
+    <t>Учкурган (эксп)</t>
+  </si>
+  <si>
+    <t>Сурханобод (эксп)</t>
+  </si>
+  <si>
+    <t>Нишан (эксп)</t>
+  </si>
+  <si>
+    <t>Найманкуль (эксп)</t>
+  </si>
+  <si>
+    <t>Шават (эксп)</t>
+  </si>
+  <si>
+    <t>Питняк (эксп)</t>
+  </si>
+  <si>
+    <t>Ходжадавлет (эксп)</t>
+  </si>
+  <si>
+    <t>Галаба (эксп)</t>
+  </si>
+  <si>
+    <t>Термез-Порт (эксп)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -705,8 +782,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -983,20 +1060,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1081,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1012,7 +1089,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1020,7 +1097,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1028,7 +1105,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1036,7 +1113,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1044,7 +1121,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1052,7 +1129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,7 +1137,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,7 +1145,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1076,7 +1153,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1084,7 +1161,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1092,7 +1169,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1100,7 +1177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1108,7 +1185,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,7 +1193,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1124,7 +1201,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1132,7 +1209,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1140,7 +1217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1148,7 +1225,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1156,7 +1233,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1164,7 +1241,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1172,7 +1249,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1180,7 +1257,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1188,7 +1265,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1196,7 +1273,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1204,7 +1281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1212,7 +1289,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1220,7 +1297,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1228,7 +1305,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1236,7 +1313,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1244,7 +1321,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1252,7 +1329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1260,7 +1337,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1268,7 +1345,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1276,7 +1353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1284,7 +1361,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1292,7 +1369,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1300,7 +1377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -1308,7 +1385,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -1316,7 +1393,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -1324,7 +1401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -1332,7 +1409,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -1340,7 +1417,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -1348,7 +1425,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1356,7 +1433,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1364,7 +1441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1372,7 +1449,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -1380,7 +1457,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -1388,7 +1465,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -1396,7 +1473,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -1404,7 +1481,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -1412,7 +1489,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -1420,7 +1497,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -1428,7 +1505,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -1436,7 +1513,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -1444,7 +1521,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -1452,7 +1529,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -1460,7 +1537,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -1468,7 +1545,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>173</v>
       </c>
@@ -1476,7 +1553,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
@@ -1484,7 +1561,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
@@ -1492,7 +1569,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -1500,7 +1577,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
@@ -1508,7 +1585,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
@@ -1516,7 +1593,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
@@ -1524,7 +1601,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
@@ -1532,7 +1609,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
@@ -1540,7 +1617,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
@@ -1548,7 +1625,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
@@ -1556,7 +1633,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
@@ -1564,7 +1641,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
@@ -1572,7 +1649,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>174</v>
       </c>
@@ -1580,7 +1657,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>71</v>
       </c>
@@ -1588,7 +1665,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>175</v>
       </c>
@@ -1596,7 +1673,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>72</v>
       </c>
@@ -1604,7 +1681,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>73</v>
       </c>
@@ -1612,7 +1689,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>74</v>
       </c>
@@ -1620,7 +1697,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>75</v>
       </c>
@@ -1628,7 +1705,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>76</v>
       </c>
@@ -1636,7 +1713,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>77</v>
       </c>
@@ -1644,7 +1721,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>78</v>
       </c>
@@ -1652,7 +1729,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>176</v>
       </c>
@@ -1660,7 +1737,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>79</v>
       </c>
@@ -1668,7 +1745,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>80</v>
       </c>
@@ -1676,7 +1753,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>81</v>
       </c>
@@ -1684,7 +1761,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>82</v>
       </c>
@@ -1692,7 +1769,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>83</v>
       </c>
@@ -1700,7 +1777,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>84</v>
       </c>
@@ -1708,7 +1785,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>85</v>
       </c>
@@ -1716,7 +1793,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>86</v>
       </c>
@@ -1724,7 +1801,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>87</v>
       </c>
@@ -1732,7 +1809,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>177</v>
       </c>
@@ -1740,7 +1817,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -1748,7 +1825,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -1756,7 +1833,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>90</v>
       </c>
@@ -1764,7 +1841,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>91</v>
       </c>
@@ -1772,7 +1849,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>92</v>
       </c>
@@ -1780,7 +1857,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
@@ -1788,7 +1865,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>94</v>
       </c>
@@ -1796,7 +1873,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>172</v>
       </c>
@@ -1804,7 +1881,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>95</v>
       </c>
@@ -1812,7 +1889,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>96</v>
       </c>
@@ -1820,7 +1897,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>97</v>
       </c>
@@ -1828,7 +1905,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>98</v>
       </c>
@@ -1836,7 +1913,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>99</v>
       </c>
@@ -1844,7 +1921,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>100</v>
       </c>
@@ -1852,7 +1929,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>101</v>
       </c>
@@ -1860,7 +1937,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>102</v>
       </c>
@@ -1868,7 +1945,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>103</v>
       </c>
@@ -1876,7 +1953,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>104</v>
       </c>
@@ -1884,7 +1961,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>105</v>
       </c>
@@ -1892,7 +1969,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>106</v>
       </c>
@@ -1900,7 +1977,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>107</v>
       </c>
@@ -1908,7 +1985,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>108</v>
       </c>
@@ -1916,7 +1993,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>109</v>
       </c>
@@ -1924,7 +2001,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>110</v>
       </c>
@@ -1932,7 +2009,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>111</v>
       </c>
@@ -1940,7 +2017,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>112</v>
       </c>
@@ -1948,7 +2025,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>113</v>
       </c>
@@ -1956,7 +2033,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>114</v>
       </c>
@@ -1964,7 +2041,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>115</v>
       </c>
@@ -1972,7 +2049,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>116</v>
       </c>
@@ -1980,7 +2057,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>117</v>
       </c>
@@ -1988,7 +2065,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>118</v>
       </c>
@@ -1996,7 +2073,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>119</v>
       </c>
@@ -2004,7 +2081,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>120</v>
       </c>
@@ -2012,7 +2089,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>121</v>
       </c>
@@ -2027,19 +2104,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>144</v>
       </c>
@@ -2047,7 +2124,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>143</v>
       </c>
@@ -2055,7 +2132,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>178</v>
       </c>
@@ -2063,7 +2140,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>142</v>
       </c>
@@ -2071,7 +2148,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>141</v>
       </c>
@@ -2079,7 +2156,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>140</v>
       </c>
@@ -2087,7 +2164,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>139</v>
       </c>
@@ -2095,7 +2172,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>138</v>
       </c>
@@ -2103,7 +2180,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>137</v>
       </c>
@@ -2111,7 +2188,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>136</v>
       </c>
@@ -2119,7 +2196,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>135</v>
       </c>
@@ -2127,7 +2204,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>134</v>
       </c>
@@ -2135,7 +2212,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>133</v>
       </c>
@@ -2143,7 +2220,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>132</v>
       </c>
@@ -2151,7 +2228,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>131</v>
       </c>
@@ -2159,7 +2236,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>130</v>
       </c>
@@ -2167,7 +2244,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>129</v>
       </c>
@@ -2175,7 +2252,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>128</v>
       </c>
@@ -2183,7 +2260,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>127</v>
       </c>
@@ -2191,7 +2268,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>126</v>
       </c>
@@ -2199,7 +2276,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>125</v>
       </c>
@@ -2207,7 +2284,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>124</v>
       </c>
@@ -2215,7 +2292,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>123</v>
       </c>
@@ -2223,7 +2300,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>179</v>
       </c>
@@ -2231,7 +2308,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>122</v>
       </c>
@@ -2245,19 +2322,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>145</v>
       </c>
@@ -2265,7 +2342,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>146</v>
       </c>
@@ -2273,7 +2350,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>147</v>
       </c>
@@ -2281,7 +2358,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>180</v>
       </c>
@@ -2289,7 +2366,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>148</v>
       </c>
@@ -2297,7 +2374,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>149</v>
       </c>
@@ -2305,7 +2382,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>150</v>
       </c>
@@ -2313,7 +2390,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>151</v>
       </c>
@@ -2321,7 +2398,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>152</v>
       </c>
@@ -2329,7 +2406,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>153</v>
       </c>
@@ -2337,7 +2414,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>154</v>
       </c>
@@ -2345,7 +2422,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>155</v>
       </c>
@@ -2353,7 +2430,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>156</v>
       </c>
@@ -2361,7 +2438,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>157</v>
       </c>
@@ -2369,7 +2446,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>181</v>
       </c>
@@ -2377,7 +2454,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>158</v>
       </c>
@@ -2385,7 +2462,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>159</v>
       </c>
@@ -2393,7 +2470,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>160</v>
       </c>
@@ -2401,7 +2478,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>161</v>
       </c>
@@ -2409,7 +2486,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>162</v>
       </c>
@@ -2417,7 +2494,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>163</v>
       </c>
@@ -2425,7 +2502,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>164</v>
       </c>
@@ -2433,7 +2510,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>165</v>
       </c>
@@ -2441,7 +2518,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>166</v>
       </c>
@@ -2449,7 +2526,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>167</v>
       </c>
@@ -2457,7 +2534,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>182</v>
       </c>
@@ -2465,7 +2542,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>183</v>
       </c>
@@ -2473,7 +2550,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>168</v>
       </c>
@@ -2481,7 +2558,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>169</v>
       </c>
@@ -2489,7 +2566,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>170</v>
       </c>
@@ -2497,7 +2574,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>171</v>
       </c>
@@ -2505,12 +2582,311 @@
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>184</v>
       </c>
       <c r="B32" s="8">
         <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4EC15D-80CC-41D4-A56B-B5C47AC49BFE}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3">
+        <v>1649</v>
+      </c>
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4">
+        <v>183</v>
+      </c>
+      <c r="C4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5">
+        <v>361</v>
+      </c>
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6">
+        <v>884</v>
+      </c>
+      <c r="C6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7">
+        <v>838</v>
+      </c>
+      <c r="C7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8">
+        <v>465</v>
+      </c>
+      <c r="C8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9">
+        <v>470</v>
+      </c>
+      <c r="C9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10">
+        <v>428</v>
+      </c>
+      <c r="C10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11">
+        <v>488</v>
+      </c>
+      <c r="C11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12">
+        <v>367</v>
+      </c>
+      <c r="C12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13">
+        <v>907</v>
+      </c>
+      <c r="C13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14">
+        <v>567</v>
+      </c>
+      <c r="C14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15">
+        <v>1222</v>
+      </c>
+      <c r="C15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16">
+        <v>1140</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17">
+        <v>1048</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18">
+        <v>695</v>
+      </c>
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19">
+        <v>845</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20">
+        <v>842</v>
+      </c>
+      <c r="C20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
